--- a/api_documentation/RoutesNoMiddleWare.xlsx
+++ b/api_documentation/RoutesNoMiddleWare.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\Documents\auth laravel\AuthFinal-HMS\api_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{489314C8-F3DD-4B32-99A1-AF110E50F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A3267-11F8-4F06-8C9C-EED28DF38778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2100" windowWidth="18900" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoutesNoMiddleWare" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -988,13 +988,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Routes2" displayName="Routes2" ref="A1:D62" totalsRowShown="0">
-  <autoFilter ref="A1:D62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BB9BCAA-EB29-4958-BFEF-2CCF45DEFB81}" name="Table1" displayName="Table1" ref="A1:D62" totalsRowShown="0">
+  <autoFilter ref="A1:D62" xr:uid="{7BB9BCAA-EB29-4958-BFEF-2CCF45DEFB81}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="METHOD"/>
-    <tableColumn id="2" name="URI"/>
-    <tableColumn id="3" name="NAME"/>
-    <tableColumn id="4" name="ACTION"/>
+    <tableColumn id="1" xr3:uid="{62BF1801-6B4B-4BA8-B78E-2C2FDB99D9A8}" name="METHOD"/>
+    <tableColumn id="2" xr3:uid="{32F50315-B8CA-4639-8CCB-0B8E476D0FA2}" name="URI"/>
+    <tableColumn id="3" xr3:uid="{20E716A5-185C-4841-B911-9DD96FB42333}" name="NAME"/>
+    <tableColumn id="4" xr3:uid="{E1BF1150-93F8-41B6-99DF-A97354C6B5C3}" name="ACTION"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1296,11 +1296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
